--- a/biology/Microbiologie/Verrucomicrobiia/Verrucomicrobiia.xlsx
+++ b/biology/Microbiologie/Verrucomicrobiia/Verrucomicrobiia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Verrucomicrobiia (anciennement Verrucomicrobiae) forment une classe de bactéries à Gram négatif du phylum des Verrucomicrobiota. Son nom provient de Verrucomicrobiales qui est l'ordre type de cette classe.
-En 2022 selon la LPSN  (21 octobre 2023)[2] cette classe ne comporte qu'un seul ordre, les Verrucomicrobiales Ward-Rainey et al. 1996.
+En 2022 selon la LPSN  (21 octobre 2023) cette classe ne comporte qu'un seul ordre, les Verrucomicrobiales Ward-Rainey et al. 1996.
 </t>
         </is>
       </c>
@@ -512,15 +524,51 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Verrucomicrobiia corrig. Hedlund et al. 1998[2].
-Le genre type est : Verrucomicrobium Schlesner 1988[2].
-Verrucomicrobiia a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Verrucomicrobiia corrig. Hedlund et al. 1998.
+Le genre type est : Verrucomicrobium Schlesner 1988.
+Verrucomicrobiia a pour synonymes :
 Verrucomicrobiae Hedlund et al. 1998 (orthographe inexacte)
-"Verrucomicrobiia" Cavalier-Smith 2020 (publié de manière non valide)
-Étymologie
-L'étymologie de cette classe est la suivante : N.L. neut. pl. n. Verrucomicrobiia, la classe des Verrucomicrobiales[2].
+"Verrucomicrobiia" Cavalier-Smith 2020 (publié de manière non valide)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Verrucomicrobiia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verrucomicrobiia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette classe est la suivante : N.L. neut. pl. n. Verrucomicrobiia, la classe des Verrucomicrobiales.
 </t>
         </is>
       </c>
